--- a/OpenWorld/Resources/Weapons.xlsx
+++ b/OpenWorld/Resources/Weapons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -142,6 +142,69 @@
   </si>
   <si>
     <t>feet piece</t>
+  </si>
+  <si>
+    <t>Axe2</t>
+  </si>
+  <si>
+    <t>Short bow2</t>
+  </si>
+  <si>
+    <t>Long bow2</t>
+  </si>
+  <si>
+    <t>Staff2</t>
+  </si>
+  <si>
+    <t>Great sword2</t>
+  </si>
+  <si>
+    <t>Short sword2</t>
+  </si>
+  <si>
+    <t>Orb of enlightment2</t>
+  </si>
+  <si>
+    <t>Whip2</t>
+  </si>
+  <si>
+    <t>Axe3</t>
+  </si>
+  <si>
+    <t>Short bow3</t>
+  </si>
+  <si>
+    <t>Long bow3</t>
+  </si>
+  <si>
+    <t>Staff3</t>
+  </si>
+  <si>
+    <t>Great sword3</t>
+  </si>
+  <si>
+    <t>Orb of enlightment3</t>
+  </si>
+  <si>
+    <t>Whip3</t>
+  </si>
+  <si>
+    <t>Short bow23</t>
+  </si>
+  <si>
+    <t>Long bow23</t>
+  </si>
+  <si>
+    <t>Staff23</t>
+  </si>
+  <si>
+    <t>Great sword23</t>
+  </si>
+  <si>
+    <t>Short sword33</t>
+  </si>
+  <si>
+    <t>Orb of enlightment33</t>
   </si>
 </sst>
 </file>
@@ -193,11 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -415,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -639,126 +703,603 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-2</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
